--- a/db/uploads/plans.xlsx
+++ b/db/uploads/plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/Claims/db/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/cis_life_main/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37CE17AA-3845-5943-90D3-95F8FC204005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32130947-1E66-DD4B-AE03-2C36B6A82492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{DE5E7A87-D520-EB43-A054-B654AA6511F6}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>PlanDescription</t>
   </si>
@@ -221,9 +220,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>GROUP YEARLY RENEWABLE TERM INSURANCE (GYRT) - PFU</t>
@@ -581,7 +577,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,9 +724,6 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
         <v>62</v>
       </c>
     </row>
